--- a/document/isa.xlsx
+++ b/document/isa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Sipeed\FPGA\Tang_Primer\CPU\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3FF8E-AE80-4266-BEBF-07D2BCD3D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C151930-06A6-4E1E-B01D-E2A18A205CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jump And Link: 程序无条件跳转到 add 函数执行，并将函数返回地址保存到 rd 中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无条件跳转到 [rd] + IMM 的地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>右移imm位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump And Link: 程序无条件跳转到IMM执行，并将函数返回地址保存到 rd 中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,18 +308,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
     <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="6" width="5" style="2" customWidth="1"/>
     <col min="7" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="55.77734375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="55.77734375" style="3" customWidth="1"/>
     <col min="19" max="19" width="9.21875" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="4.88671875" style="1"/>
@@ -674,898 +674,981 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="5" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="5" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="5" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>100</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>101</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>110</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>111</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>1000</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="5" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>1001</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="5" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="5"/>
     </row>
     <row r="16" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>10000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="5" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>10001</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="5" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="7"/>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>10010</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="5" t="s">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>10011</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="5" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="7"/>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>10100</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="5" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>10101</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="5" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="7"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>10110</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>10111</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="5"/>
     </row>
     <row r="25" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>11000</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="5" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>11001</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="5" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="7"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>11010</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="5" t="s">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>11011</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="5" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="T28" s="5"/>
     </row>
     <row r="30" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>11100</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T30" s="7"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>11101</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31" s="7"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="7">
         <v>11110</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="5" t="s">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="4">
+        <v>53</v>
+      </c>
+      <c r="B33" s="7">
         <v>11111</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="5" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T33" s="7"/>
+      <c r="T33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="J28:L28"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="J31:Q31"/>
@@ -1585,92 +1668,11 @@
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="M27:Q27"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G30:I30"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="M21:Q21"/>
     <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/isa.xlsx
+++ b/document/isa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Sipeed\FPGA\Tang_Primer\CPU\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C151930-06A6-4E1E-B01D-E2A18A205CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BE91D-A578-41C5-A088-848775C3768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>opcode</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>Jump And Link: 程序无条件跳转到IMM执行，并将函数返回地址保存到 rd 中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +612,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1545,18 +1549,14 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -1567,16 +1567,78 @@
       <c r="T33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
+  <mergeCells count="103">
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B25:F25"/>
@@ -1597,82 +1659,18 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/isa.xlsx
+++ b/document/isa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Sipeed\FPGA\Tang_Primer\CPU\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BE91D-A578-41C5-A088-848775C3768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F8018F-ED8D-485D-A678-1CE0A34DBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11796" yWindow="2916" windowWidth="11244" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1568,17 +1568,63 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:Q32"/>
@@ -1599,6 +1645,19 @@
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="J31:Q31"/>
     <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="M19:Q19"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="M11:Q11"/>
@@ -1606,71 +1665,12 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="M12:Q12"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:Q5"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
